--- a/templates/AutomationOrg/RSTK-9517-Work Order complete Flow.xlsx
+++ b/templates/AutomationOrg/RSTK-9517-Work Order complete Flow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C1F183-04E3-42D1-A6A6-092B1CD10972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65FE980-5BEA-4FFE-9F56-1516A9171271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
   <si>
     <t>Site</t>
   </si>
@@ -608,7 +608,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1445,16 +1445,6 @@
       </c>
       <c r="D9">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
